--- a/documents/analysis/NSFNET.xlsx
+++ b/documents/analysis/NSFNET.xlsx
@@ -5,14 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edielson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edielson\Documents\Researches\robust-network-optimization\documents\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="4420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="4420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="# 50 scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="# 200 scenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="p(x) #200" sheetId="3" r:id="rId3"/>
+    <sheet name="# 300 scenarios" sheetId="4" r:id="rId4"/>
+    <sheet name="p(x) #300" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,8 +27,126 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Edielson Frigieri</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edielson Frigieri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1012.23 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edielson Frigieri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+883.11 seconds</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Edielson Frigieri</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edielson Frigieri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4727.97 seconds
+gap 0.0620%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edielson Frigieri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1720.12 seconds
+gap 0.0978%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Failure Probability</t>
   </si>
@@ -35,23 +157,114 @@
     <t># scenarios = 50</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Reference</t>
   </si>
   <si>
-    <t>e</t>
+    <t>p(x)</t>
+  </si>
+  <si>
+    <t>C[1,3]:</t>
+  </si>
+  <si>
+    <t>C[1,4]:</t>
+  </si>
+  <si>
+    <t>C[2,1]:</t>
+  </si>
+  <si>
+    <t>C[2,3]:</t>
+  </si>
+  <si>
+    <t>C[3,2]:</t>
+  </si>
+  <si>
+    <t>C[3,7]:</t>
+  </si>
+  <si>
+    <t>C[4,1]:</t>
+  </si>
+  <si>
+    <t>C[4,9]:</t>
+  </si>
+  <si>
+    <t>C[5,4]:</t>
+  </si>
+  <si>
+    <t>C[5,6]:</t>
+  </si>
+  <si>
+    <t>C[6,8]:</t>
+  </si>
+  <si>
+    <t>C[7,5]:</t>
+  </si>
+  <si>
+    <t>C[7,10]:</t>
+  </si>
+  <si>
+    <t>C[8,2]:</t>
+  </si>
+  <si>
+    <t>C[8,11]:</t>
+  </si>
+  <si>
+    <t>C[9,14]:</t>
+  </si>
+  <si>
+    <t>C[10,7]:</t>
+  </si>
+  <si>
+    <t>C[11,10]:</t>
+  </si>
+  <si>
+    <t>C[11,12]:</t>
+  </si>
+  <si>
+    <t>C[12,9]:</t>
+  </si>
+  <si>
+    <t>C[13,7]:</t>
+  </si>
+  <si>
+    <t>C[13,14]:</t>
+  </si>
+  <si>
+    <t>C[14,11]:</t>
+  </si>
+  <si>
+    <t>C[14,13]:</t>
+  </si>
+  <si>
+    <t>Cij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(x)' </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,10 +275,83 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -74,13 +360,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,8 +490,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="768287" cy="334515"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -145,6 +527,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -171,7 +554,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -187,7 +570,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -199,7 +582,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -211,7 +594,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -228,7 +611,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -242,7 +625,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -255,7 +638,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -269,7 +652,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -288,7 +671,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -301,7 +684,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -315,7 +698,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -329,7 +712,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -347,7 +730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -453,8 +836,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206595" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -490,6 +873,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -529,7 +913,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -587,8 +971,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="548996" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -624,6 +1008,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -652,7 +1037,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -718,8 +1103,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627095" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -755,6 +1140,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -783,7 +1169,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -849,8 +1235,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206595" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -886,6 +1272,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -925,7 +1312,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -983,8 +1370,8 @@
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="768287" cy="334515"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -1020,6 +1407,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1046,7 +1434,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1062,7 +1450,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1074,7 +1462,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1086,7 +1474,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1103,7 +1491,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1117,7 +1505,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1130,7 +1518,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1144,7 +1532,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1163,7 +1551,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1176,7 +1564,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1190,7 +1578,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1204,7 +1592,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1222,7 +1610,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -1311,6 +1699,4594 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768287" cy="334515"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2384425" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∈</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2384425" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_((𝑖,𝑗)∈𝐿_𝐵)▒𝐶_𝑖𝑗^𝐵 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3711575" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3711575" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548996" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3559175" y="196850"/>
+              <a:ext cx="548996" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0.05</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3559175" y="196850"/>
+              <a:ext cx="548996" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=0.05</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627095" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6372225" y="203200"/>
+              <a:ext cx="627095" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0.095</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6372225" y="203200"/>
+              <a:ext cx="627095" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=0.095</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6670675" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6670675" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768287" cy="334515"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="387350"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∈</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="387350"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_((𝑖,𝑗)∈𝐿_𝐵)▒𝐶_𝑖𝑗^𝐵 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="345223" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4867275" y="450850"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4867275" y="450850"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="308739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4156075" y="457200"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4156075" y="457200"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="345223" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7559675" y="482600"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7559675" y="482600"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="308739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6981825" y="482600"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6981825" y="482600"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768287" cy="334515"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66675" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∈</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66675" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_((𝑖,𝑗)∈𝐿_𝐵)▒𝐶_𝑖𝑗^𝐵 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1514475" y="558800"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1514475" y="558800"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768287" cy="334515"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3527425" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∈</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3527425" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_((𝑖,𝑗)∈𝐿_𝐵)▒𝐶_𝑖𝑗^𝐵 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4854575" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4854575" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548996" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4746625" y="196850"/>
+              <a:ext cx="548996" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0.05</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4746625" y="196850"/>
+              <a:ext cx="548996" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=0.05</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627095" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7597775" y="203200"/>
+              <a:ext cx="627095" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0.095</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7597775" y="203200"/>
+              <a:ext cx="627095" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=0.095</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7896225" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7896225" y="463550"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768287" cy="334515"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6569075" y="387350"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∈</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6569075" y="387350"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_((𝑖,𝑗)∈𝐿_𝐵)▒𝐶_𝑖𝑗^𝐵 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="345223" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6092825" y="450850"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6092825" y="450850"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="308739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5381625" y="457200"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5381625" y="457200"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="345223" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8893175" y="482600"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8893175" y="482600"/>
+              <a:ext cx="345223" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="308739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8315325" y="482600"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8315325" y="482600"/>
+              <a:ext cx="308739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768287" cy="334515"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66675" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∈</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66675" y="393700"/>
+              <a:ext cx="768287" cy="334515"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_((𝑖,𝑗)∈𝐿_𝐵)▒𝐶_𝑖𝑗^𝐵 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1514475" y="558800"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1514475" y="558800"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -1586,10 +6562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,12 +6583,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24"/>
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1761,57 +6741,1268 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D17">
-        <v>200</v>
-      </c>
-      <c r="E17">
-        <v>0.05</v>
-      </c>
-      <c r="F17">
-        <f>1/(D17*E17)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D18">
-        <v>80</v>
-      </c>
-      <c r="E18">
-        <v>0.05</v>
-      </c>
-      <c r="F18">
-        <f>1/(D18*E18)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D19">
-        <v>10000</v>
-      </c>
-      <c r="E19">
-        <v>0.01</v>
-      </c>
-      <c r="F19">
-        <f>1/(D19*E19)</f>
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="15">
+        <v>29.6</v>
+      </c>
+      <c r="F5" s="17">
+        <v>4.3913000000000002</v>
+      </c>
+      <c r="G5" s="17">
+        <f>MAX('p(x) #200'!B2:B24)</f>
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="23">
+        <f>MAX('p(x) #200'!C2:C24)</f>
+        <v>9.7933000000000006E-2</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>27.733333333329998</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3.48</v>
+      </c>
+      <c r="G6" s="16">
+        <f>MAX('p(x) #200'!F2:F27)</f>
+        <v>0.17</v>
+      </c>
+      <c r="H6" s="16">
+        <f>MAX('p(x) #200'!G2:G27)</f>
+        <v>0.14488500000000001</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0.04</v>
+      </c>
+      <c r="C2">
+        <v>9.7933000000000006E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>1.6039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.9677E-2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.17</v>
+      </c>
+      <c r="G3">
+        <v>0.14488500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.0163E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.8101999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>6.1894999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <v>3.1766999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>4.8283E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>1.0329E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.6069E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>3.6449999999999998E-3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3.0279E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9">
+        <v>3.6210000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.3</v>
+      </c>
+      <c r="F9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>4.8048E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>3.571E-3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.0371999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.8</v>
+      </c>
+      <c r="F11">
+        <v>0.04</v>
+      </c>
+      <c r="G11">
+        <v>6.8996000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <v>4.8291000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="C13">
+        <v>4.5941000000000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>3.0446000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.0586E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.2</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>4.8295999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>3.6589999999999999E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G15">
+        <v>1.5937E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0.03</v>
+      </c>
+      <c r="C16">
+        <v>3.1475000000000003E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <v>3.0360999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>3.1675000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1.0348E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.3</v>
+      </c>
+      <c r="F18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>3.0488000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1.9986E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+      <c r="F19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>4.8337999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3.6219999999999998E-3</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="F20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>9.1387999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>1.593E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C22">
+        <v>4.5943999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>6.8439E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>2.4674000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.6011999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>3.1837999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G24">
+        <v>5.7549999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G25">
+        <v>3.0745999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G26">
+        <v>3.0192E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="15">
+        <v>30.8</v>
+      </c>
+      <c r="F5" s="17">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17">
+        <f>MAX('p(x) #300'!C2:C25)</f>
+        <v>0.17666699999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <f>MAX('p(x) #300'!D2:D25)</f>
+        <v>0.169067</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>30.7</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3.7692299999999999</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.66667E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.9807000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.06667</v>
+      </c>
+      <c r="C4">
+        <v>3.3333299999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.5720000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1.26667</v>
+      </c>
+      <c r="C5">
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.9982E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1.26667</v>
+      </c>
+      <c r="C6">
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.0340999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.1945000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.17666699999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.169067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.26667</v>
+      </c>
+      <c r="C9">
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.9875E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.66667E-2</v>
+      </c>
+      <c r="D10">
+        <v>4.5969000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1.2</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>3.2156999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.66667E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2.26667</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>2.4573000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1.06667</v>
+      </c>
+      <c r="C15">
+        <v>3.3333299999999998E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.0378999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.12</v>
+      </c>
+      <c r="D16">
+        <v>0.117186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2.1333299999999999</v>
+      </c>
+      <c r="C17">
+        <v>6.6666700000000004E-3</v>
+      </c>
+      <c r="D17">
+        <v>9.6220000000000003E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>1.06667</v>
+      </c>
+      <c r="C18">
+        <v>3.3333299999999998E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.123333</v>
+      </c>
+      <c r="D19">
+        <v>0.116214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>1.26667</v>
+      </c>
+      <c r="C20">
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.9869999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1.6</v>
+      </c>
+      <c r="C21">
+        <v>2.6666700000000002E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.9802E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>1.26667</v>
+      </c>
+      <c r="C22">
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.0080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1.06667</v>
+      </c>
+      <c r="C23">
+        <v>3.3333299999999998E-3</v>
+      </c>
+      <c r="D23">
+        <v>3.6610000000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="C24">
+        <v>1.66667E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.9907000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="C25">
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>4.6016000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>